--- a/texts_data.xlsx
+++ b/texts_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="65">
   <si>
     <t>Timestamp</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>Barbados</t>
   </si>
 </sst>
 </file>
@@ -7022,6 +7025,468 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>43842.89774436342</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U86" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W86" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>43843.66662172454</v>
+      </c>
+      <c r="B87" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O87" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S87" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U87" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W87" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>43843.73485511574</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>43843.92828637731</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S89" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U89" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W89" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>43843.94092465278</v>
+      </c>
+      <c r="B90" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="T90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U90" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W90" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>43844.46774328704</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S91" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U91" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W91" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="X91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
